--- a/doc/game-config/npc.xlsx
+++ b/doc/game-config/npc.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="121">
   <si>
     <r>
       <rPr>
@@ -225,7 +225,7 @@
     <t>property</t>
   </si>
   <si>
-    <t>daily_plan_req</t>
+    <t>map</t>
   </si>
   <si>
     <t>i</t>
@@ -258,683 +258,12 @@
     <t>y</t>
   </si>
   <si>
-    <t>Player</t>
+    <t>satoshi</t>
   </si>
   <si>
     <t>fit and sturdy</t>
   </si>
   <si>
-    <t>diligent, patient, resourceful</t>
-  </si>
-  <si>
-    <t>Alice is a hardworking farmer who grows a variety of crops and takes pride in her self-sustained lifestyle.</t>
-  </si>
-  <si>
-    <t>Alice goes to bed around 10pm, wakes up around 5am, eats dinner around 7pm. She enjoys the tranquility of the countryside and tends to her garden in her free time.</t>
-  </si>
-  <si>
-    <t>Farmhouse on Greenhill Farm</t>
-  </si>
-  <si>
-    <t>Farmhouse, various farming tools, a tractor</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1. Wake up at 5:00 am and complete the morning routine (brush teeth, shower, get dressed). 2. Head to the fields to start </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>耕种</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> crops. 3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>浇水</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> the crops in the morning. 4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采收</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> mature crops and prepare them for sale. 5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>销售</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> crops at the local market. 6. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>购买</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> necessary supplies from the market. 7. Return home to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>做饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> for dinner at 7:00 pm. 8. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> dinner. 9. Relax and unwind before </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>睡眠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> at 10:00 pm.</t>
-    </r>
-  </si>
-  <si>
-    <t>Alice Farmer</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Farmer</t>
-  </si>
-  <si>
-    <t>Fiona Grocer</t>
-  </si>
-  <si>
-    <t>Fiona</t>
-  </si>
-  <si>
-    <t>Grocer</t>
-  </si>
-  <si>
-    <t>average build</t>
-  </si>
-  <si>
-    <t>organized, friendly, hardworking</t>
-  </si>
-  <si>
-    <t>Fiona runs the local grocery store, providing a variety of goods to the community.</t>
-  </si>
-  <si>
-    <t>Fiona goes to bed around 9pm, wakes up around 6:30am, eats dinner around 7pm. She enjoys chatting with customers and keeping her store well-stocked.</t>
-  </si>
-  <si>
-    <t>Apartment above Grocer's Market</t>
-  </si>
-  <si>
-    <t>Grocery store, various goods</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1. Wake up at 6:30 am and complete the morning routine (brush teeth, shower, get dressed). 2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>整理货架和库存。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>搬运新到的商品。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>销售商品给顾客。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>购买家庭必需品。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">6. Return home to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>做饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> for dinner at 7:00 pm. 7. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> dinner. </t>
-    </r>
-  </si>
-  <si>
-    <t>Bob Herdman</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Herdman</t>
-  </si>
-  <si>
-    <t>strong and rugged</t>
-  </si>
-  <si>
-    <t>dependable, strong, patient</t>
-  </si>
-  <si>
-    <t>Bob is a dedicated herdsman, managing his livestock with great care and ensuring their well-being.</t>
-  </si>
-  <si>
-    <t>Bob goes to bed around 9pm, wakes up around 5:30am, eats dinner around 6pm. He enjoys spending time with his animals and the peacefulness of rural life.</t>
-  </si>
-  <si>
-    <t>Cottage on Sunny Meadows Ranch</t>
-  </si>
-  <si>
-    <t>Cottage, various livestock, barn, farming tools</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1. Wake up at 5:30 am and complete the morning routine (brush teeth, shower, get dressed). 2. Head to the barn to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投喂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> the livestock. 3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挤奶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> the cows in the morning. 4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>剪毛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> the sheep and prepare the wool. 5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>屠宰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> cattle for meat. 6. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>销售</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> milk, meat, and wool at the market. 7. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>购买</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> necessary supplies from the market. 8. Return home to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>做饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> for dinner at 6:00 pm. 9. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> dinner. 10. Relax and unwind before </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>睡眠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> at 9:00 pm.</t>
-    </r>
-  </si>
-  <si>
-    <t>Charlie Baker</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Baker</t>
-  </si>
-  <si>
-    <t>creative, precise, friendly</t>
-  </si>
-  <si>
-    <t>Charlie is a talented baker known for his delicious bread and pastries, running a small bakery in town.</t>
-  </si>
-  <si>
-    <t>Charlie goes to bed around 9pm, wakes up around 4am, eats dinner around 5pm. He enjoys experimenting with new recipes and chatting with his customers.</t>
-  </si>
-  <si>
-    <t>Apartment above Baker's Delight Bakery</t>
-  </si>
-  <si>
-    <t>Bakery, baking tools, oven</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1. Wake up at 4:00 am and complete the morning routine (brush teeth, shower, get dressed). 2. Head to the bakery to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> bread and pastries. 3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>销售</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> baked goods in the bakery. 4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>购买</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> necessary supplies from the market. 5. Return home to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>做饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> for dinner at 5:00 pm. 6. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> dinner. 7. Relax and unwind before </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>睡眠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> at 9:00 pm.</t>
-    </r>
-  </si>
-  <si>
-    <t>satoshi</t>
-  </si>
-  <si>
     <t>Visionary, Analytical, Persistent</t>
   </si>
   <si>
@@ -947,109 +276,6 @@
     <t>house</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1. 5:00 am - Repair the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小精灵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, starting the day with hands-on adjustments and testing new configurations.
-2. 6:00 am - Go out to meet a character at a quiet spot nearby, discussing cryptographic ideas and blockchain applications over coffee.
-3. 7:30 am - Read a detailed cryptographic paper, highlighting novel techniques for future reference.
-4. 9:00 am - Type at his computer, capturing insights from his reading and integrating recent discussions into his code.
-5. 10:15 am - Go out to meet another character for a quick brainstorming session, exchanging thoughts on decentralized technology and its impact.
-6. 11:00 am - Think about ways to implement ideas discussed, visualizing possible approaches and their practical implications.
-7. 12:00 pm - Repair the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小精灵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, applying the ideas from earlier conversations to test new configurations.
-8. 1:00 pm - Read a newly published research paper, making notes on blockchain innovations and security improvements.
-9. 2:30 pm - Go out to a public park to meet more characters, gathering perspectives on cryptographic needs and future potentials.
-10. 4:00 pm - Type at his computer, integrating the day’s insights into code, while refining blockchain protocols based on recent discoveries.
-11. 5:15 pm - Think through challenges in privacy and security, brainstorming possible solutions in a quiet moment of reflection.
-12. 6:00 pm - Go out for an evening gathering with characters interested in blockchain, debating decentralized models and their real-world applications.
-13. 7:30 pm - Repair the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小精灵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> at home, incorporating ideas discussed earlier, adjusting components, and testing for functionality.
-14. 8:30 pm - Read an article on decentralized consensus mechanisms, exploring advanced techniques for maintaining security.
-15. 10:00 pm - Type his reflections and new ideas, coding updates and organizing notes based on the evening’s readings.
-16. 11:15 pm - Go out to a late-night meetup with another character, exploring collaborative ideas for cryptographic improvements.
-17. 12:30 am - Repair the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小精灵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, making final adjustments based on insights from the day’s conversations and experiments.
-18. 1:30 am - Think quietly, contemplating the long-term impacts of his work, visualizing future advancements.
-19. 2:30 am - Read another research paper on cryptographic theory, taking notes and gathering concepts for the next day.
-20. 4:00 am - Type up thoughts, documenting theoretical advancements and consolidating ideas from recent discussions.
-21. 4:45 am - Reflect in silence, setting intentions for the next day, while capturing ideas that emerged throughout his varied day.</t>
-    </r>
-  </si>
-  <si>
     <t>popcat</t>
   </si>
   <si>
@@ -1075,6 +301,24 @@
   </si>
   <si>
     <t>luna</t>
+  </si>
+  <si>
+    <t>leo</t>
+  </si>
+  <si>
+    <t>ivy</t>
+  </si>
+  <si>
+    <t>kai</t>
+  </si>
+  <si>
+    <t>selena</t>
+  </si>
+  <si>
+    <t>nova</t>
+  </si>
+  <si>
+    <t>aiden</t>
   </si>
   <si>
     <r>
@@ -1118,25 +362,40 @@
     <t>玩家NPC</t>
   </si>
   <si>
+    <t>Player</t>
+  </si>
+  <si>
     <t>农民</t>
   </si>
   <si>
+    <t>Farmer</t>
+  </si>
+  <si>
     <t>100,101,102,103,104,105,106,110,111</t>
   </si>
   <si>
     <t>杂货店主</t>
   </si>
   <si>
+    <t>Grocer</t>
+  </si>
+  <si>
     <t>102,103,104,105,106,107,108,110,111</t>
   </si>
   <si>
     <t>牧民</t>
   </si>
   <si>
+    <t>Herdman</t>
+  </si>
+  <si>
     <t>102,103,104,105,106,109,110,111</t>
   </si>
   <si>
     <t>面包师</t>
+  </si>
+  <si>
+    <t>Baker</t>
   </si>
   <si>
     <t>103,104,105,106,110,110,111</t>
@@ -1348,7 +607,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1562,12 +821,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1801,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1861,6 +1114,56 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1985,7 +1288,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1997,34 +1300,34 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2112,7 +1415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2186,9 +1489,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2198,10 +1498,17 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2576,10 +1883,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58333333333333" defaultRowHeight="14.25"/>
@@ -2599,9 +1906,10 @@
     <col min="14" max="15" width="7.16666666666667" style="2" customWidth="1"/>
     <col min="16" max="16" width="12.0833333333333" style="2" customWidth="1"/>
     <col min="17" max="17" width="8.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="21" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.8333333333333" style="2" customWidth="1"/>
-    <col min="20" max="21" width="19" style="2" customWidth="1"/>
+    <col min="18" max="18" width="1.25" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="0.375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="37.875" style="2" customWidth="1"/>
     <col min="22" max="22" width="19.25" style="2" customWidth="1"/>
     <col min="23" max="16384" width="8.58333333333333" style="2"/>
   </cols>
@@ -2750,7 +2058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" ht="15" spans="1:22">
       <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
@@ -2815,1038 +2123,1132 @@
         <v>29</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:22">
+      <c r="A5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="26">
+        <v>10006</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="26">
+        <v>5</v>
+      </c>
+      <c r="G5" s="27">
         <v>10001</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="25">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="H5" s="27">
+        <v>100</v>
+      </c>
+      <c r="I5" s="27">
+        <v>100</v>
+      </c>
+      <c r="J5" s="26">
+        <v>100</v>
+      </c>
+      <c r="K5" s="33">
+        <v>1088</v>
+      </c>
+      <c r="L5" s="33">
+        <v>704</v>
+      </c>
+      <c r="M5" s="34">
+        <v>20</v>
+      </c>
+      <c r="N5" s="34">
+        <v>180</v>
+      </c>
+      <c r="O5" s="34">
+        <v>60</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:22">
+      <c r="A6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="26">
+        <v>10007</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="26">
+        <v>6</v>
+      </c>
+      <c r="G6" s="27">
         <v>10001</v>
       </c>
-      <c r="H5" s="9">
-        <v>100</v>
-      </c>
-      <c r="I5" s="29">
-        <v>100</v>
-      </c>
-      <c r="J5" s="30">
-        <v>100</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="H6" s="27">
+        <v>100</v>
+      </c>
+      <c r="I6" s="27">
+        <v>100</v>
+      </c>
+      <c r="J6" s="26">
+        <v>100</v>
+      </c>
+      <c r="K6" s="33">
+        <v>1280</v>
+      </c>
+      <c r="L6" s="33">
+        <v>1248</v>
+      </c>
+      <c r="M6" s="34">
+        <v>20</v>
+      </c>
+      <c r="N6" s="34">
+        <v>180</v>
+      </c>
+      <c r="O6" s="34">
+        <v>60</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:22">
+      <c r="A7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="26">
+        <v>10008</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="26">
+        <v>7</v>
+      </c>
+      <c r="G7" s="27">
+        <v>10001</v>
+      </c>
+      <c r="H7" s="27">
+        <v>100</v>
+      </c>
+      <c r="I7" s="27">
+        <v>100</v>
+      </c>
+      <c r="J7" s="26">
+        <v>100</v>
+      </c>
+      <c r="K7" s="33">
+        <v>1312</v>
+      </c>
+      <c r="L7" s="33">
+        <v>992</v>
+      </c>
+      <c r="M7" s="34">
+        <v>20</v>
+      </c>
+      <c r="N7" s="34">
+        <v>180</v>
+      </c>
+      <c r="O7" s="34">
+        <v>60</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:22">
+      <c r="A8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="26">
+        <v>10009</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="26">
+        <v>8</v>
+      </c>
+      <c r="G8" s="27">
+        <v>10001</v>
+      </c>
+      <c r="H8" s="27">
+        <v>100</v>
+      </c>
+      <c r="I8" s="27">
+        <v>100</v>
+      </c>
+      <c r="J8" s="26">
+        <v>100</v>
+      </c>
+      <c r="K8" s="33">
+        <v>960</v>
+      </c>
+      <c r="L8" s="33">
+        <v>2432</v>
+      </c>
+      <c r="M8" s="34">
+        <v>20</v>
+      </c>
+      <c r="N8" s="34">
+        <v>180</v>
+      </c>
+      <c r="O8" s="34">
+        <v>60</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:22">
+      <c r="A9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="26">
+        <v>10010</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="26">
+        <v>9</v>
+      </c>
+      <c r="G9" s="27">
+        <v>10001</v>
+      </c>
+      <c r="H9" s="27">
+        <v>100</v>
+      </c>
+      <c r="I9" s="27">
+        <v>100</v>
+      </c>
+      <c r="J9" s="26">
+        <v>100</v>
+      </c>
+      <c r="K9" s="33">
+        <v>512</v>
+      </c>
+      <c r="L9" s="33">
+        <v>2112</v>
+      </c>
+      <c r="M9" s="34">
+        <v>20</v>
+      </c>
+      <c r="N9" s="34">
+        <v>180</v>
+      </c>
+      <c r="O9" s="34">
+        <v>60</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:22">
+      <c r="A10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="26">
+        <v>10011</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="26">
+        <v>10</v>
+      </c>
+      <c r="G10" s="27">
+        <v>10001</v>
+      </c>
+      <c r="H10" s="27">
+        <v>100</v>
+      </c>
+      <c r="I10" s="27">
+        <v>100</v>
+      </c>
+      <c r="J10" s="26">
+        <v>100</v>
+      </c>
+      <c r="K10" s="33">
         <v>1120</v>
       </c>
-      <c r="L5" s="7">
-        <v>3520</v>
-      </c>
-      <c r="M5" s="16">
+      <c r="L10" s="33">
+        <v>3648</v>
+      </c>
+      <c r="M10" s="34">
         <v>20</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N10" s="34">
         <v>180</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O10" s="34">
         <v>60</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S10" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="25">
-        <v>10002</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="25">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>10002</v>
-      </c>
-      <c r="H6" s="9">
-        <v>100</v>
-      </c>
-      <c r="I6" s="29">
-        <v>90</v>
-      </c>
-      <c r="J6" s="30">
-        <v>100</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1120</v>
-      </c>
-      <c r="L6" s="7">
-        <v>3520</v>
-      </c>
-      <c r="M6" s="16">
+      <c r="U10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="35"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:22">
+      <c r="A11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="26">
+        <v>10012</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="26">
+        <v>11</v>
+      </c>
+      <c r="G11" s="27">
+        <v>10001</v>
+      </c>
+      <c r="H11" s="27">
+        <v>100</v>
+      </c>
+      <c r="I11" s="27">
+        <v>100</v>
+      </c>
+      <c r="J11" s="26">
+        <v>100</v>
+      </c>
+      <c r="K11" s="33">
+        <v>352</v>
+      </c>
+      <c r="L11" s="33">
+        <v>288</v>
+      </c>
+      <c r="M11" s="34">
+        <v>20</v>
+      </c>
+      <c r="N11" s="34">
+        <v>180</v>
+      </c>
+      <c r="O11" s="34">
+        <v>60</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="16">
-        <v>165</v>
-      </c>
-      <c r="O6" s="16">
+      <c r="T11" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:22">
+      <c r="A12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="26">
+        <v>10013</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="26">
+        <v>12</v>
+      </c>
+      <c r="G12" s="27">
+        <v>10001</v>
+      </c>
+      <c r="H12" s="27">
+        <v>100</v>
+      </c>
+      <c r="I12" s="27">
+        <v>100</v>
+      </c>
+      <c r="J12" s="26">
+        <v>100</v>
+      </c>
+      <c r="K12" s="33">
+        <v>1856</v>
+      </c>
+      <c r="L12" s="33">
+        <v>2304</v>
+      </c>
+      <c r="M12" s="34">
+        <v>20</v>
+      </c>
+      <c r="N12" s="34">
+        <v>180</v>
+      </c>
+      <c r="O12" s="34">
         <v>60</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q12" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T12" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="25">
-        <v>10003</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="U12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="35"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:22">
+      <c r="A13" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="26">
+        <v>10014</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="25">
-        <v>2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>10003</v>
-      </c>
-      <c r="H7" s="9">
-        <v>100</v>
-      </c>
-      <c r="I7" s="29">
-        <v>80</v>
-      </c>
-      <c r="J7" s="30">
-        <v>100</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1120</v>
-      </c>
-      <c r="L7" s="7">
-        <v>3520</v>
-      </c>
-      <c r="M7" s="16">
+      <c r="D13" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="26">
+        <v>13</v>
+      </c>
+      <c r="G13" s="27">
+        <v>10001</v>
+      </c>
+      <c r="H13" s="27">
+        <v>100</v>
+      </c>
+      <c r="I13" s="27">
+        <v>100</v>
+      </c>
+      <c r="J13" s="26">
+        <v>100</v>
+      </c>
+      <c r="K13" s="33">
+        <v>864</v>
+      </c>
+      <c r="L13" s="33">
+        <v>2336</v>
+      </c>
+      <c r="M13" s="34">
+        <v>20</v>
+      </c>
+      <c r="N13" s="34">
+        <v>180</v>
+      </c>
+      <c r="O13" s="34">
+        <v>60</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="1:22">
+      <c r="A14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="26">
+        <v>10015</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="26">
+        <v>14</v>
+      </c>
+      <c r="G14" s="27">
+        <v>10001</v>
+      </c>
+      <c r="H14" s="27">
+        <v>100</v>
+      </c>
+      <c r="I14" s="27">
+        <v>100</v>
+      </c>
+      <c r="J14" s="26">
+        <v>100</v>
+      </c>
+      <c r="K14" s="33">
+        <v>320</v>
+      </c>
+      <c r="L14" s="33">
+        <v>736</v>
+      </c>
+      <c r="M14" s="34">
+        <v>20</v>
+      </c>
+      <c r="N14" s="34">
+        <v>180</v>
+      </c>
+      <c r="O14" s="34">
+        <v>60</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:22">
+      <c r="A15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="26">
+        <v>10016</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="26">
+        <v>15</v>
+      </c>
+      <c r="G15" s="27">
+        <v>10001</v>
+      </c>
+      <c r="H15" s="27">
+        <v>100</v>
+      </c>
+      <c r="I15" s="27">
+        <v>100</v>
+      </c>
+      <c r="J15" s="26">
+        <v>100</v>
+      </c>
+      <c r="K15" s="33">
+        <v>192</v>
+      </c>
+      <c r="L15" s="33">
+        <v>1504</v>
+      </c>
+      <c r="M15" s="34">
+        <v>20</v>
+      </c>
+      <c r="N15" s="34">
+        <v>180</v>
+      </c>
+      <c r="O15" s="34">
+        <v>60</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:22">
+      <c r="A16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="26">
+        <v>10017</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="26">
+        <v>16</v>
+      </c>
+      <c r="G16" s="27">
+        <v>10001</v>
+      </c>
+      <c r="H16" s="27">
+        <v>100</v>
+      </c>
+      <c r="I16" s="27">
+        <v>100</v>
+      </c>
+      <c r="J16" s="26">
+        <v>100</v>
+      </c>
+      <c r="K16" s="33">
+        <v>384</v>
+      </c>
+      <c r="L16" s="33">
+        <v>2048</v>
+      </c>
+      <c r="M16" s="34">
+        <v>20</v>
+      </c>
+      <c r="N16" s="34">
+        <v>180</v>
+      </c>
+      <c r="O16" s="34">
+        <v>60</v>
+      </c>
+      <c r="P16" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:22">
+      <c r="A17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="26">
+        <v>10018</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="26">
+        <v>17</v>
+      </c>
+      <c r="G17" s="27">
+        <v>10001</v>
+      </c>
+      <c r="H17" s="27">
+        <v>100</v>
+      </c>
+      <c r="I17" s="27">
+        <v>100</v>
+      </c>
+      <c r="J17" s="26">
+        <v>100</v>
+      </c>
+      <c r="K17" s="33">
+        <v>928</v>
+      </c>
+      <c r="L17" s="33">
+        <v>2560</v>
+      </c>
+      <c r="M17" s="34">
+        <v>20</v>
+      </c>
+      <c r="N17" s="34">
+        <v>180</v>
+      </c>
+      <c r="O17" s="34">
+        <v>60</v>
+      </c>
+      <c r="P17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:22">
+      <c r="A18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="29">
+        <v>10019</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="31">
+        <v>18</v>
+      </c>
+      <c r="G18" s="27">
+        <v>10001</v>
+      </c>
+      <c r="H18" s="27">
+        <v>100</v>
+      </c>
+      <c r="I18" s="27">
+        <v>100</v>
+      </c>
+      <c r="J18" s="26">
+        <v>100</v>
+      </c>
+      <c r="K18" s="33">
+        <v>512</v>
+      </c>
+      <c r="L18" s="33">
+        <v>2240</v>
+      </c>
+      <c r="M18" s="34">
+        <v>20</v>
+      </c>
+      <c r="N18" s="34">
+        <v>180</v>
+      </c>
+      <c r="O18" s="34">
+        <v>60</v>
+      </c>
+      <c r="P18" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:22">
+      <c r="A19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="26">
+        <v>10020</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="16">
-        <v>165</v>
-      </c>
-      <c r="O7" s="16">
-        <v>65</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="U7" s="15" t="s">
+      <c r="D19" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="V7" s="15" t="s">
+      <c r="E19" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="26">
+        <v>19</v>
+      </c>
+      <c r="G19" s="27">
+        <v>10001</v>
+      </c>
+      <c r="H19" s="27">
+        <v>100</v>
+      </c>
+      <c r="I19" s="27">
+        <v>100</v>
+      </c>
+      <c r="J19" s="26">
+        <v>100</v>
+      </c>
+      <c r="K19" s="33">
+        <v>1184</v>
+      </c>
+      <c r="L19" s="33">
+        <v>640</v>
+      </c>
+      <c r="M19" s="34">
+        <v>20</v>
+      </c>
+      <c r="N19" s="34">
+        <v>180</v>
+      </c>
+      <c r="O19" s="34">
+        <v>60</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:22">
+      <c r="A20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="29">
+        <v>10021</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="25">
-        <v>10004</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="25">
-        <v>3</v>
-      </c>
-      <c r="G8" s="9">
-        <v>10004</v>
-      </c>
-      <c r="H8" s="9">
-        <v>100</v>
-      </c>
-      <c r="I8" s="29">
-        <v>88</v>
-      </c>
-      <c r="J8" s="30">
-        <v>100</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1120</v>
-      </c>
-      <c r="L8" s="7">
-        <v>3520</v>
-      </c>
-      <c r="M8" s="16">
-        <v>40</v>
-      </c>
-      <c r="N8" s="16">
+      <c r="D20" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="31">
+        <v>20</v>
+      </c>
+      <c r="G20" s="27">
+        <v>10001</v>
+      </c>
+      <c r="H20" s="27">
+        <v>100</v>
+      </c>
+      <c r="I20" s="27">
+        <v>100</v>
+      </c>
+      <c r="J20" s="26">
+        <v>100</v>
+      </c>
+      <c r="K20" s="33">
+        <v>256</v>
+      </c>
+      <c r="L20" s="33">
+        <v>896</v>
+      </c>
+      <c r="M20" s="34">
+        <v>20</v>
+      </c>
+      <c r="N20" s="34">
         <v>180</v>
       </c>
-      <c r="O8" s="16">
-        <v>75</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8" s="15" t="s">
+      <c r="O20" s="34">
         <v>60</v>
       </c>
-      <c r="V8" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:22">
-      <c r="A9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="25">
-        <v>10005</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="25">
+      <c r="P20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" s="35">
         <v>4</v>
-      </c>
-      <c r="G9" s="9">
-        <v>10005</v>
-      </c>
-      <c r="H9" s="9">
-        <v>100</v>
-      </c>
-      <c r="I9" s="29">
-        <v>99</v>
-      </c>
-      <c r="J9" s="30">
-        <v>100</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1120</v>
-      </c>
-      <c r="L9" s="7">
-        <v>3520</v>
-      </c>
-      <c r="M9" s="16">
-        <v>30</v>
-      </c>
-      <c r="N9" s="16">
-        <v>170</v>
-      </c>
-      <c r="O9" s="16">
-        <v>65</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="U9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="V9" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" ht="409.5" spans="1:22">
-      <c r="A10" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="27">
-        <v>10006</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="27">
-        <v>5</v>
-      </c>
-      <c r="G10" s="28">
-        <v>10001</v>
-      </c>
-      <c r="H10" s="28">
-        <v>100</v>
-      </c>
-      <c r="I10" s="28">
-        <v>100</v>
-      </c>
-      <c r="J10" s="27">
-        <v>100</v>
-      </c>
-      <c r="K10" s="31">
-        <v>1120</v>
-      </c>
-      <c r="L10" s="31">
-        <v>3520</v>
-      </c>
-      <c r="M10" s="32">
-        <v>20</v>
-      </c>
-      <c r="N10" s="32">
-        <v>180</v>
-      </c>
-      <c r="O10" s="32">
-        <v>60</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="T10" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="V10" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" ht="409.5" spans="1:22">
-      <c r="A11" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="27">
-        <v>10007</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="27">
-        <v>6</v>
-      </c>
-      <c r="G11" s="28">
-        <v>10001</v>
-      </c>
-      <c r="H11" s="28">
-        <v>100</v>
-      </c>
-      <c r="I11" s="28">
-        <v>100</v>
-      </c>
-      <c r="J11" s="27">
-        <v>100</v>
-      </c>
-      <c r="K11" s="31">
-        <v>1280</v>
-      </c>
-      <c r="L11" s="31">
-        <v>1248</v>
-      </c>
-      <c r="M11" s="32">
-        <v>20</v>
-      </c>
-      <c r="N11" s="32">
-        <v>180</v>
-      </c>
-      <c r="O11" s="32">
-        <v>60</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R11" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="S11" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="T11" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="U11" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="V11" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" ht="409.5" spans="1:22">
-      <c r="A12" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="27">
-        <v>10008</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="27">
-        <v>7</v>
-      </c>
-      <c r="G12" s="28">
-        <v>10001</v>
-      </c>
-      <c r="H12" s="28">
-        <v>100</v>
-      </c>
-      <c r="I12" s="28">
-        <v>100</v>
-      </c>
-      <c r="J12" s="27">
-        <v>100</v>
-      </c>
-      <c r="K12" s="31">
-        <v>1312</v>
-      </c>
-      <c r="L12" s="31">
-        <v>992</v>
-      </c>
-      <c r="M12" s="32">
-        <v>20</v>
-      </c>
-      <c r="N12" s="32">
-        <v>180</v>
-      </c>
-      <c r="O12" s="32">
-        <v>60</v>
-      </c>
-      <c r="P12" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R12" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="S12" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="T12" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="U12" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="V12" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" ht="409.5" spans="1:22">
-      <c r="A13" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="27">
-        <v>10009</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="27">
-        <v>8</v>
-      </c>
-      <c r="G13" s="28">
-        <v>10001</v>
-      </c>
-      <c r="H13" s="28">
-        <v>100</v>
-      </c>
-      <c r="I13" s="28">
-        <v>100</v>
-      </c>
-      <c r="J13" s="27">
-        <v>100</v>
-      </c>
-      <c r="K13" s="31">
-        <v>1408</v>
-      </c>
-      <c r="L13" s="31">
-        <v>5024</v>
-      </c>
-      <c r="M13" s="32">
-        <v>20</v>
-      </c>
-      <c r="N13" s="32">
-        <v>180</v>
-      </c>
-      <c r="O13" s="32">
-        <v>60</v>
-      </c>
-      <c r="P13" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R13" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="S13" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="T13" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="U13" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="V13" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" ht="409.5" spans="1:22">
-      <c r="A14" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="27">
-        <v>10010</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="27">
-        <v>9</v>
-      </c>
-      <c r="G14" s="28">
-        <v>10001</v>
-      </c>
-      <c r="H14" s="28">
-        <v>100</v>
-      </c>
-      <c r="I14" s="28">
-        <v>100</v>
-      </c>
-      <c r="J14" s="27">
-        <v>100</v>
-      </c>
-      <c r="K14" s="31">
-        <v>512</v>
-      </c>
-      <c r="L14" s="31">
-        <v>3392</v>
-      </c>
-      <c r="M14" s="32">
-        <v>20</v>
-      </c>
-      <c r="N14" s="32">
-        <v>180</v>
-      </c>
-      <c r="O14" s="32">
-        <v>60</v>
-      </c>
-      <c r="P14" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R14" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="T14" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="U14" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="V14" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" ht="409.5" spans="1:22">
-      <c r="A15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="27">
-        <v>10011</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="27">
-        <v>10</v>
-      </c>
-      <c r="G15" s="28">
-        <v>10001</v>
-      </c>
-      <c r="H15" s="28">
-        <v>100</v>
-      </c>
-      <c r="I15" s="28">
-        <v>100</v>
-      </c>
-      <c r="J15" s="27">
-        <v>100</v>
-      </c>
-      <c r="K15" s="31">
-        <v>1120</v>
-      </c>
-      <c r="L15" s="31">
-        <v>3648</v>
-      </c>
-      <c r="M15" s="32">
-        <v>20</v>
-      </c>
-      <c r="N15" s="32">
-        <v>180</v>
-      </c>
-      <c r="O15" s="32">
-        <v>60</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R15" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="S15" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="T15" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="U15" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="V15" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" ht="409.5" spans="1:22">
-      <c r="A16" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="27">
-        <v>10012</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="27">
-        <v>11</v>
-      </c>
-      <c r="G16" s="28">
-        <v>10001</v>
-      </c>
-      <c r="H16" s="28">
-        <v>100</v>
-      </c>
-      <c r="I16" s="28">
-        <v>100</v>
-      </c>
-      <c r="J16" s="27">
-        <v>100</v>
-      </c>
-      <c r="K16" s="31">
-        <v>1856</v>
-      </c>
-      <c r="L16" s="31">
-        <v>1664</v>
-      </c>
-      <c r="M16" s="32">
-        <v>20</v>
-      </c>
-      <c r="N16" s="32">
-        <v>180</v>
-      </c>
-      <c r="O16" s="32">
-        <v>60</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R16" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="S16" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="T16" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="U16" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="V16" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" ht="409.5" spans="1:22">
-      <c r="A17" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="27">
-        <v>10013</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="27">
-        <v>12</v>
-      </c>
-      <c r="G17" s="28">
-        <v>10001</v>
-      </c>
-      <c r="H17" s="28">
-        <v>100</v>
-      </c>
-      <c r="I17" s="28">
-        <v>100</v>
-      </c>
-      <c r="J17" s="27">
-        <v>100</v>
-      </c>
-      <c r="K17" s="31">
-        <v>1856</v>
-      </c>
-      <c r="L17" s="31">
-        <v>2304</v>
-      </c>
-      <c r="M17" s="32">
-        <v>20</v>
-      </c>
-      <c r="N17" s="32">
-        <v>180</v>
-      </c>
-      <c r="O17" s="32">
-        <v>60</v>
-      </c>
-      <c r="P17" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R17" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="S17" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="T17" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="U17" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="V17" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" ht="409.5" spans="1:22">
-      <c r="A18" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="27">
-        <v>10014</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="27">
-        <v>13</v>
-      </c>
-      <c r="G18" s="28">
-        <v>10001</v>
-      </c>
-      <c r="H18" s="28">
-        <v>100</v>
-      </c>
-      <c r="I18" s="28">
-        <v>100</v>
-      </c>
-      <c r="J18" s="27">
-        <v>100</v>
-      </c>
-      <c r="K18" s="31">
-        <v>1600</v>
-      </c>
-      <c r="L18" s="31">
-        <v>3776</v>
-      </c>
-      <c r="M18" s="32">
-        <v>20</v>
-      </c>
-      <c r="N18" s="32">
-        <v>180</v>
-      </c>
-      <c r="O18" s="32">
-        <v>60</v>
-      </c>
-      <c r="P18" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R18" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="S18" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="T18" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="U18" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="V18" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" ht="409.5" spans="1:22">
-      <c r="A19" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="27">
-        <v>10015</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="27">
-        <v>14</v>
-      </c>
-      <c r="G19" s="28">
-        <v>10001</v>
-      </c>
-      <c r="H19" s="28">
-        <v>100</v>
-      </c>
-      <c r="I19" s="28">
-        <v>100</v>
-      </c>
-      <c r="J19" s="27">
-        <v>100</v>
-      </c>
-      <c r="K19" s="31">
-        <v>320</v>
-      </c>
-      <c r="L19" s="31">
-        <v>2176</v>
-      </c>
-      <c r="M19" s="32">
-        <v>20</v>
-      </c>
-      <c r="N19" s="32">
-        <v>180</v>
-      </c>
-      <c r="O19" s="32">
-        <v>60</v>
-      </c>
-      <c r="P19" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R19" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="S19" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="T19" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="U19" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="V19" s="33" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="duplicateValues" dxfId="0" priority="33" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="duplicateValues" dxfId="0" priority="34" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="duplicateValues" dxfId="0" priority="31" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="duplicateValues" dxfId="0" priority="32" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="0" priority="29" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="30" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="duplicateValues" dxfId="0" priority="27" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="duplicateValues" dxfId="0" priority="28" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="duplicateValues" dxfId="0" priority="25" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="duplicateValues" dxfId="0" priority="26" stopIfTrue="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="0" priority="21" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="23" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="duplicateValues" dxfId="0" priority="22" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="24" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
     <cfRule type="duplicateValues" dxfId="0" priority="19" stopIfTrue="1"/>
@@ -3866,47 +3268,17 @@
   <conditionalFormatting sqref="F13">
     <cfRule type="duplicateValues" dxfId="0" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="B14 B16 B18">
     <cfRule type="duplicateValues" dxfId="0" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="F14 F16 F18 F20">
     <cfRule type="duplicateValues" dxfId="0" priority="14" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
+  <conditionalFormatting sqref="B15 B17 B19:B20">
     <cfRule type="duplicateValues" dxfId="0" priority="11" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+  <conditionalFormatting sqref="F15 F17 F19">
     <cfRule type="duplicateValues" dxfId="0" priority="12" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="0" priority="7" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="duplicateValues" dxfId="0" priority="8" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="0" priority="5" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="duplicateValues" dxfId="0" priority="6" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B9">
-    <cfRule type="duplicateValues" dxfId="0" priority="31" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F9">
-    <cfRule type="duplicateValues" dxfId="0" priority="32" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3936,22 +3308,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="16"/>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3965,10 +3337,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3985,7 +3357,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3996,10 +3368,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E5" s="21"/>
     </row>
@@ -4011,13 +3383,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4028,13 +3400,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4045,13 +3417,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4062,13 +3434,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -4107,25 +3479,25 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16"/>
       <c r="B2" s="5" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4139,13 +3511,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4176,10 +3548,10 @@
         <v>100</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -4192,10 +3564,10 @@
         <v>101</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -4208,10 +3580,10 @@
         <v>102</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -4224,10 +3596,10 @@
         <v>103</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -4240,10 +3612,10 @@
         <v>104</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -4256,10 +3628,10 @@
         <v>105</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -4272,10 +3644,10 @@
         <v>106</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -4288,10 +3660,10 @@
         <v>107</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -4304,10 +3676,10 @@
         <v>108</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -4320,10 +3692,10 @@
         <v>109</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -4336,10 +3708,10 @@
         <v>110</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -4352,10 +3724,10 @@
         <v>111</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -4389,28 +3761,28 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4421,7 +3793,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>23</v>
@@ -4430,10 +3802,10 @@
         <v>24</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4456,7 +3828,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4470,16 +3842,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4493,16 +3865,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4516,16 +3888,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4539,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E8" s="14">
         <v>2</v>
@@ -4548,7 +3920,7 @@
         <v>10101001</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4562,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E9" s="14">
         <v>2</v>
@@ -4571,7 +3943,7 @@
         <v>10101002</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4585,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E10" s="14">
         <v>2</v>
@@ -4594,7 +3966,7 @@
         <v>10101003</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4608,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E11" s="14">
         <v>2</v>
@@ -4617,7 +3989,7 @@
         <v>10101004</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4631,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E12" s="14">
         <v>2</v>
@@ -4640,7 +4012,7 @@
         <v>10101005</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4654,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E13" s="14">
         <v>2</v>
@@ -4677,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E14" s="14">
         <v>2</v>
@@ -4700,13 +4072,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E15" s="18">
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="G15" s="16"/>
     </row>
@@ -4721,13 +4093,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E16" s="18">
         <v>1</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="G16" s="16"/>
     </row>
@@ -4742,13 +4114,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E17" s="18">
         <v>1</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="G17" s="16"/>
     </row>
@@ -4763,13 +4135,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E18" s="16">
         <v>1</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="G18" s="16"/>
     </row>
@@ -4784,7 +4156,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E19" s="20">
         <v>2</v>
@@ -4793,7 +4165,7 @@
         <v>10101001</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4807,7 +4179,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E20" s="20">
         <v>2</v>
@@ -4816,7 +4188,7 @@
         <v>10101002</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4830,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E21" s="20">
         <v>2</v>
@@ -4839,7 +4211,7 @@
         <v>10101003</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4853,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E22" s="20">
         <v>2</v>
@@ -4862,7 +4234,7 @@
         <v>10101004</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4876,7 +4248,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E23" s="20">
         <v>2</v>
@@ -4885,7 +4257,7 @@
         <v>10101005</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4899,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E24" s="20">
         <v>2</v>
@@ -4922,7 +4294,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E25" s="20">
         <v>2</v>
@@ -4945,13 +4317,13 @@
         <v>3</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E26" s="18">
         <v>1</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="G26" s="16">
         <v>2</v>
@@ -4968,13 +4340,13 @@
         <v>3</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E27" s="18">
         <v>1</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="G27" s="16">
         <v>2</v>
@@ -4991,7 +4363,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E28" s="20">
         <v>2</v>
@@ -5014,7 +4386,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E29" s="20">
         <v>2</v>
@@ -5037,7 +4409,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E30" s="20">
         <v>2</v>
@@ -5060,7 +4432,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E31" s="20">
         <v>2</v>
@@ -5083,7 +4455,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E32" s="20">
         <v>2</v>
@@ -5106,7 +4478,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E33" s="20">
         <v>2</v>
@@ -5129,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E34" s="20">
         <v>2</v>
@@ -5152,13 +4524,13 @@
         <v>4</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E35" s="18">
         <v>1</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="G35" s="16">
         <v>4</v>
@@ -5175,13 +4547,13 @@
         <v>4</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E36" s="18">
         <v>1</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="G36" s="16">
         <v>4</v>
@@ -5198,7 +4570,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E37" s="20">
         <v>2</v>
@@ -5221,7 +4593,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E38" s="20">
         <v>2</v>
@@ -5244,7 +4616,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E39" s="20">
         <v>2</v>
@@ -5267,7 +4639,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E40" s="20">
         <v>2</v>
@@ -5290,7 +4662,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E41" s="20">
         <v>2</v>
@@ -5313,7 +4685,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E42" s="20">
         <v>2</v>
@@ -5336,7 +4708,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E43" s="20">
         <v>2</v>

--- a/doc/game-config/npc.xlsx
+++ b/doc/game-config/npc.xlsx
@@ -312,7 +312,7 @@
     <t>kai</t>
   </si>
   <si>
-    <t>selena</t>
+    <t>qiu</t>
   </si>
   <si>
     <t>nova</t>
@@ -1886,7 +1886,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58333333333333" defaultRowHeight="14.25"/>
@@ -1906,11 +1906,11 @@
     <col min="14" max="15" width="7.16666666666667" style="2" customWidth="1"/>
     <col min="16" max="16" width="12.0833333333333" style="2" customWidth="1"/>
     <col min="17" max="17" width="8.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="1.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.75" style="2" customWidth="1"/>
     <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="0.375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="37.875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="19.25" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5" style="2" customWidth="1"/>
     <col min="23" max="16384" width="8.58333333333333" style="2"/>
   </cols>
   <sheetData>
@@ -3293,7 +3293,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3463,7 +3463,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58333333333333" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3744,7 +3744,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58333333333333" defaultRowHeight="14.25" outlineLevelCol="6"/>

--- a/doc/game-config/npc.xlsx
+++ b/doc/game-config/npc.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="122">
   <si>
     <r>
       <rPr>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>aiden</t>
+  </si>
+  <si>
+    <t>altman</t>
   </si>
   <si>
     <r>
@@ -1883,10 +1886,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58333333333333" defaultRowHeight="14.25"/>
@@ -2195,9 +2198,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:22">
-      <c r="A6" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="A6" s="25"/>
       <c r="B6" s="26">
         <v>10007</v>
       </c>
@@ -2263,9 +2264,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:22">
-      <c r="A7" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="A7" s="25"/>
       <c r="B7" s="26">
         <v>10008</v>
       </c>
@@ -2399,9 +2398,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:22">
-      <c r="A9" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="A9" s="25"/>
       <c r="B9" s="26">
         <v>10010</v>
       </c>
@@ -2467,9 +2464,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:22">
-      <c r="A10" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="A10" s="25"/>
       <c r="B10" s="26">
         <v>10011</v>
       </c>
@@ -2601,9 +2596,7 @@
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:22">
-      <c r="A12" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="A12" s="25"/>
       <c r="B12" s="26">
         <v>10013</v>
       </c>
@@ -2667,9 +2660,7 @@
       <c r="V12" s="35"/>
     </row>
     <row r="13" ht="15.75" spans="1:22">
-      <c r="A13" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="A13" s="25"/>
       <c r="B13" s="26">
         <v>10014</v>
       </c>
@@ -2735,9 +2726,7 @@
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:22">
-      <c r="A14" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="A14" s="25"/>
       <c r="B14" s="26">
         <v>10015</v>
       </c>
@@ -3208,6 +3197,74 @@
       </c>
       <c r="V20" s="35">
         <v>4</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:22">
+      <c r="A21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="29">
+        <v>10022</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="31">
+        <v>21</v>
+      </c>
+      <c r="G21" s="27">
+        <v>10001</v>
+      </c>
+      <c r="H21" s="27">
+        <v>100</v>
+      </c>
+      <c r="I21" s="27">
+        <v>100</v>
+      </c>
+      <c r="J21" s="26">
+        <v>100</v>
+      </c>
+      <c r="K21" s="33">
+        <v>544</v>
+      </c>
+      <c r="L21" s="33">
+        <v>2624</v>
+      </c>
+      <c r="M21" s="34">
+        <v>20</v>
+      </c>
+      <c r="N21" s="34">
+        <v>180</v>
+      </c>
+      <c r="O21" s="34">
+        <v>60</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" s="35">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3215,70 +3272,76 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
+    <cfRule type="duplicateValues" dxfId="0" priority="35" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="duplicateValues" dxfId="0" priority="36" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
     <cfRule type="duplicateValues" dxfId="0" priority="33" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F6">
     <cfRule type="duplicateValues" dxfId="0" priority="34" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="B7">
     <cfRule type="duplicateValues" dxfId="0" priority="31" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F7">
     <cfRule type="duplicateValues" dxfId="0" priority="32" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="B8">
     <cfRule type="duplicateValues" dxfId="0" priority="29" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F8">
     <cfRule type="duplicateValues" dxfId="0" priority="30" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="duplicateValues" dxfId="0" priority="27" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="F9">
     <cfRule type="duplicateValues" dxfId="0" priority="28" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
+  <conditionalFormatting sqref="B10">
     <cfRule type="duplicateValues" dxfId="0" priority="25" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="F10">
     <cfRule type="duplicateValues" dxfId="0" priority="26" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="0" priority="23" stopIfTrue="1"/>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="duplicateValues" dxfId="0" priority="21" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="duplicateValues" dxfId="0" priority="24" stopIfTrue="1"/>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="duplicateValues" dxfId="0" priority="22" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
+  <conditionalFormatting sqref="B12">
     <cfRule type="duplicateValues" dxfId="0" priority="19" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="F12">
     <cfRule type="duplicateValues" dxfId="0" priority="20" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
+  <conditionalFormatting sqref="B13">
     <cfRule type="duplicateValues" dxfId="0" priority="17" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
+  <conditionalFormatting sqref="F13">
     <cfRule type="duplicateValues" dxfId="0" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
+  <conditionalFormatting sqref="B21">
+    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14 B16 B18">
     <cfRule type="duplicateValues" dxfId="0" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
+  <conditionalFormatting sqref="F14 F16 F18 F20">
     <cfRule type="duplicateValues" dxfId="0" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14 B16 B18">
+  <conditionalFormatting sqref="B15 B17 B19:B20">
     <cfRule type="duplicateValues" dxfId="0" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14 F16 F18 F20">
+  <conditionalFormatting sqref="F15 F17 F19">
     <cfRule type="duplicateValues" dxfId="0" priority="14" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15 B17 B19:B20">
-    <cfRule type="duplicateValues" dxfId="0" priority="11" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15 F17 F19">
-    <cfRule type="duplicateValues" dxfId="0" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3308,22 +3371,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="16"/>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3337,10 +3400,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3357,7 +3420,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3368,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="21"/>
     </row>
@@ -3383,13 +3446,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3400,13 +3463,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3417,13 +3480,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3434,13 +3497,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -3479,25 +3542,25 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16"/>
       <c r="B2" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3511,13 +3574,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3548,10 +3611,10 @@
         <v>100</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -3564,10 +3627,10 @@
         <v>101</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -3580,10 +3643,10 @@
         <v>102</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -3596,10 +3659,10 @@
         <v>103</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -3612,10 +3675,10 @@
         <v>104</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -3628,10 +3691,10 @@
         <v>105</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -3644,10 +3707,10 @@
         <v>106</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -3660,10 +3723,10 @@
         <v>107</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -3676,10 +3739,10 @@
         <v>108</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -3692,10 +3755,10 @@
         <v>109</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -3708,10 +3771,10 @@
         <v>110</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -3724,10 +3787,10 @@
         <v>111</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -3761,28 +3824,28 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3793,7 +3856,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>23</v>
@@ -3802,10 +3865,10 @@
         <v>24</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3828,7 +3891,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3842,16 +3905,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3865,16 +3928,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3888,16 +3951,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3911,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" s="14">
         <v>2</v>
@@ -3920,7 +3983,7 @@
         <v>10101001</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3934,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" s="14">
         <v>2</v>
@@ -3943,7 +4006,7 @@
         <v>10101002</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3957,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" s="14">
         <v>2</v>
@@ -3966,7 +4029,7 @@
         <v>10101003</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3980,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" s="14">
         <v>2</v>
@@ -3989,7 +4052,7 @@
         <v>10101004</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4003,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="14">
         <v>2</v>
@@ -4012,7 +4075,7 @@
         <v>10101005</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4026,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="14">
         <v>2</v>
@@ -4049,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="14">
         <v>2</v>
@@ -4072,13 +4135,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="18">
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G15" s="16"/>
     </row>
@@ -4093,13 +4156,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="18">
         <v>1</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G16" s="16"/>
     </row>
@@ -4114,13 +4177,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="18">
         <v>1</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="16"/>
     </row>
@@ -4135,13 +4198,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="16">
         <v>1</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G18" s="16"/>
     </row>
@@ -4156,7 +4219,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" s="20">
         <v>2</v>
@@ -4165,7 +4228,7 @@
         <v>10101001</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4179,7 +4242,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" s="20">
         <v>2</v>
@@ -4188,7 +4251,7 @@
         <v>10101002</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4202,7 +4265,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" s="20">
         <v>2</v>
@@ -4211,7 +4274,7 @@
         <v>10101003</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4225,7 +4288,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" s="20">
         <v>2</v>
@@ -4234,7 +4297,7 @@
         <v>10101004</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4248,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23" s="20">
         <v>2</v>
@@ -4257,7 +4320,7 @@
         <v>10101005</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4271,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24" s="20">
         <v>2</v>
@@ -4294,7 +4357,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E25" s="20">
         <v>2</v>
@@ -4317,13 +4380,13 @@
         <v>3</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E26" s="18">
         <v>1</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G26" s="16">
         <v>2</v>
@@ -4340,13 +4403,13 @@
         <v>3</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27" s="18">
         <v>1</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G27" s="16">
         <v>2</v>
@@ -4363,7 +4426,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" s="20">
         <v>2</v>
@@ -4386,7 +4449,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29" s="20">
         <v>2</v>
@@ -4409,7 +4472,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E30" s="20">
         <v>2</v>
@@ -4432,7 +4495,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E31" s="20">
         <v>2</v>
@@ -4455,7 +4518,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E32" s="20">
         <v>2</v>
@@ -4478,7 +4541,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E33" s="20">
         <v>2</v>
@@ -4501,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34" s="20">
         <v>2</v>
@@ -4524,13 +4587,13 @@
         <v>4</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E35" s="18">
         <v>1</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G35" s="16">
         <v>4</v>
@@ -4547,13 +4610,13 @@
         <v>4</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E36" s="18">
         <v>1</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G36" s="16">
         <v>4</v>
@@ -4570,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37" s="20">
         <v>2</v>
@@ -4593,7 +4656,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E38" s="20">
         <v>2</v>
@@ -4616,7 +4679,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E39" s="20">
         <v>2</v>
@@ -4639,7 +4702,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E40" s="20">
         <v>2</v>
@@ -4662,7 +4725,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E41" s="20">
         <v>2</v>
@@ -4685,7 +4748,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E42" s="20">
         <v>2</v>
@@ -4708,7 +4771,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E43" s="20">
         <v>2</v>
